--- a/Dokumentation/Keyword_Search.xlsx
+++ b/Dokumentation/Keyword_Search.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Journal</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Suchstring</t>
   </si>
@@ -46,7 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -58,6 +55,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,14 +93,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -417,48 +434,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="74.1640625" customWidth="1"/>
     <col min="3" max="3" width="27.83203125" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="74.83203125" customWidth="1"/>
+    <col min="6" max="6" width="74.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Dokumentation/Keyword_Search.xlsx
+++ b/Dokumentation/Keyword_Search.xlsx
@@ -437,7 +437,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
